--- a/final/gas_charges_upto_100m3.xlsx
+++ b/final/gas_charges_upto_100m3.xlsx
@@ -1577,6 +1577,57 @@
       <c r="A22" s="1" t="n">
         <v>42522</v>
       </c>
+      <c r="B22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>127.26</v>
+      </c>
+      <c r="L22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>124.18</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>128.33</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4982,6 +5033,57 @@
       <c r="A84" s="1" t="n">
         <v>42552</v>
       </c>
+      <c r="B84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="E84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="F84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="G84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="H84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="I84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="J84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="K84" t="n">
+        <v>127.26</v>
+      </c>
+      <c r="L84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="M84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="N84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="O84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="P84" t="n">
+        <v>124.18</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="S84" t="n">
+        <v>128.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
